--- a/data/takipozet_sigorta.xlsx
+++ b/data/takipozet_sigorta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uguraskar\Documents\Github\pjournal_mef04-uguraskar\mef04-uguraskar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5725D8AB-8E23-4F64-BB01-43D0209419B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDE14CA-C5C2-454A-A14A-7110AF6ECEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="3735" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isyatirim" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>AKGRT</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>26.11.2020</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>ANSGR</t>
   </si>
   <si>
-    <t>TUT</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
@@ -59,6 +53,12 @@
   </si>
   <si>
     <t>Market Cap (mn TL)</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>HOLD</t>
   </si>
 </sst>
 </file>
@@ -420,32 +420,32 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>10.039999999999999</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>9.8800000000000008</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>8.5</v>
@@ -508,7 +508,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>7.63</v>
